--- a/xinweiw_baseline_data.xlsx
+++ b/xinweiw_baseline_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -335,6 +335,69 @@
   </si>
   <si>
     <t>3h12m</t>
+  </si>
+  <si>
+    <t>2/7/2024</t>
+  </si>
+  <si>
+    <t>6h52m</t>
+  </si>
+  <si>
+    <t>4h43m</t>
+  </si>
+  <si>
+    <t>2/8/2024</t>
+  </si>
+  <si>
+    <t>6h49m</t>
+  </si>
+  <si>
+    <t>4h51m</t>
+  </si>
+  <si>
+    <t>2/9/2024</t>
+  </si>
+  <si>
+    <t>7h55m</t>
+  </si>
+  <si>
+    <t>3h52m</t>
+  </si>
+  <si>
+    <t>2/10/2024</t>
+  </si>
+  <si>
+    <t>11h1m</t>
+  </si>
+  <si>
+    <t>7h14m</t>
+  </si>
+  <si>
+    <t>2/11/2024</t>
+  </si>
+  <si>
+    <t>8h19m</t>
+  </si>
+  <si>
+    <t>3h36m</t>
+  </si>
+  <si>
+    <t>2/12/2024</t>
+  </si>
+  <si>
+    <t>5h52m</t>
+  </si>
+  <si>
+    <t>3h47m</t>
+  </si>
+  <si>
+    <t>2/13/2024</t>
+  </si>
+  <si>
+    <t>8h15m</t>
+  </si>
+  <si>
+    <t>4h3m</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,6 +1045,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,10 +1369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
@@ -1315,9 +1381,13 @@
     <col min="4" max="4" width="13.8308823529412" style="1" customWidth="1"/>
     <col min="5" max="7" width="11" style="1"/>
     <col min="8" max="8" width="13.8308823529412" style="1" customWidth="1"/>
-    <col min="9" max="13" width="11" style="1"/>
+    <col min="9" max="9" width="11" style="1"/>
+    <col min="10" max="10" width="14.7352941176471" style="1" customWidth="1"/>
+    <col min="11" max="13" width="11" style="1"/>
     <col min="14" max="14" width="16.0147058823529" style="1" customWidth="1"/>
-    <col min="15" max="21" width="11" style="1"/>
+    <col min="15" max="19" width="11" style="1"/>
+    <col min="20" max="20" width="16.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="1"/>
     <col min="22" max="22" width="34.6102941176471" style="1" customWidth="1"/>
     <col min="23" max="23" width="25.0367647058824" style="1" customWidth="1"/>
     <col min="24" max="16384" width="11" style="1"/>
@@ -3490,6 +3560,440 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1">
+        <v>412</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="1">
+        <v>283</v>
+      </c>
+      <c r="F34" s="1">
+        <v>108</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.277083333333333</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>22</v>
+      </c>
+      <c r="N34" s="3">
+        <v>14</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>4</v>
+      </c>
+      <c r="S34" s="3">
+        <v>3</v>
+      </c>
+      <c r="T34" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1">
+        <v>409</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="1">
+        <v>291</v>
+      </c>
+      <c r="F35" s="1">
+        <v>179</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.28125</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>22</v>
+      </c>
+      <c r="N35" s="3">
+        <v>14</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1">
+        <v>475</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="1">
+        <v>232</v>
+      </c>
+      <c r="F36" s="1">
+        <v>156</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>22</v>
+      </c>
+      <c r="N36" s="3">
+        <v>14</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>4</v>
+      </c>
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
+      <c r="T36" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="1">
+        <v>661</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="1">
+        <v>434</v>
+      </c>
+      <c r="F37" s="1">
+        <v>68</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.315277777777778</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>22</v>
+      </c>
+      <c r="N37" s="3">
+        <v>14</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>4</v>
+      </c>
+      <c r="S37" s="3">
+        <v>3</v>
+      </c>
+      <c r="T37" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1">
+        <v>499</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="1">
+        <v>216</v>
+      </c>
+      <c r="F38" s="1">
+        <v>84</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.0340277777777778</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>22</v>
+      </c>
+      <c r="N38" s="3">
+        <v>14</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>4</v>
+      </c>
+      <c r="S38" s="3">
+        <v>3</v>
+      </c>
+      <c r="T38" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1">
+        <v>352</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="1">
+        <v>227</v>
+      </c>
+      <c r="F39" s="1">
+        <v>101</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.0402777777777778</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>22</v>
+      </c>
+      <c r="N39" s="3">
+        <v>14</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>4</v>
+      </c>
+      <c r="S39" s="3">
+        <v>3</v>
+      </c>
+      <c r="T39" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1">
+        <v>495</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="1">
+        <v>243</v>
+      </c>
+      <c r="F40" s="1">
+        <v>144</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>22</v>
+      </c>
+      <c r="N40" s="3">
+        <v>14</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>4</v>
+      </c>
+      <c r="S40" s="3">
+        <v>3</v>
+      </c>
+      <c r="T40" s="3">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/xinweiw_baseline_data.xlsx
+++ b/xinweiw_baseline_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AltanGadasTbl\Documents\Biostat620_G08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF1D55B-C0AF-4E78-B4B5-CCCB51344026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -37,12 +31,69 @@
     <t>Social.ST.min</t>
   </si>
   <si>
+    <t>Social.Time.Ratio</t>
+  </si>
+  <si>
     <t>Pickups</t>
   </si>
   <si>
     <t>Pickup.1st</t>
   </si>
   <si>
+    <t>Stay.late</t>
+  </si>
+  <si>
+    <t>Temperature_C</t>
+  </si>
+  <si>
+    <t>Temperature_F</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>Workmate</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Non-academic</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Course.hours</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Siblings</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>Procrastination</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
     <t>1/6/2024</t>
   </si>
   <si>
@@ -163,6 +214,9 @@
     <t>6h16m</t>
   </si>
   <si>
+    <t>4h6m</t>
+  </si>
+  <si>
     <t>1/20/2024</t>
   </si>
   <si>
@@ -299,63 +353,6 @@
   </si>
   <si>
     <t>3h12m</t>
-  </si>
-  <si>
-    <t>Social.Time.Ratio</t>
-  </si>
-  <si>
-    <t>Stay.late</t>
-  </si>
-  <si>
-    <t>Temperature_C</t>
-  </si>
-  <si>
-    <t>Temperature_F</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Devices</t>
-  </si>
-  <si>
-    <t>Workmate</t>
-  </si>
-  <si>
-    <t>Academic</t>
-  </si>
-  <si>
-    <t>Non-academic</t>
-  </si>
-  <si>
-    <t>Pets</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Course.hours</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Siblings</t>
-  </si>
-  <si>
-    <t>Apps</t>
-  </si>
-  <si>
-    <t>Procrastination</t>
-  </si>
-  <si>
-    <t>4h6m</t>
   </si>
   <si>
     <t>2/7/2024</t>
@@ -424,12 +421,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -437,36 +440,367 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Regular"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Regular"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -474,39 +808,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -764,131 +1384,134 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="4" width="11" style="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="9" width="11" style="1"/>
-    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1"/>
     <col min="13" max="13" width="34.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>110</v>
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>564</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2">
         <v>325</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="2">
+        <v>0.576</v>
+      </c>
+      <c r="G2" s="2">
         <v>62</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>0.34375</v>
       </c>
       <c r="I2" s="1">
@@ -898,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="1">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -942,31 +1565,34 @@
       <c r="Y2" s="1">
         <v>26</v>
       </c>
+      <c r="Z2" s="2">
+        <v>1610</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
+    <row r="3" spans="1:26">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
         <v>627</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
         <v>369</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>0.589</v>
+      </c>
+      <c r="G3" s="2">
         <v>50</v>
       </c>
-      <c r="H3" s="4">
-        <v>0.32291666666666702</v>
+      <c r="H3" s="3">
+        <v>0.322916666666667</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1019,31 +1645,34 @@
       <c r="Y3" s="1">
         <v>26</v>
       </c>
+      <c r="Z3" s="2">
+        <v>410</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="4" spans="1:26">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
         <v>585</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2">
         <v>359</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>0.614</v>
+      </c>
+      <c r="G4" s="2">
         <v>44</v>
       </c>
-      <c r="H4" s="4">
-        <v>0.33333333333333298</v>
+      <c r="H4" s="3">
+        <v>0.333333333333333</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1096,31 +1725,34 @@
       <c r="Y4" s="1">
         <v>26</v>
       </c>
+      <c r="Z4" s="2">
+        <v>599</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
+    <row r="5" spans="1:26">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
         <v>616</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
         <v>306</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.497</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>70</v>
       </c>
-      <c r="H5" s="4">
-        <v>0.30208333333333298</v>
+      <c r="H5" s="3">
+        <v>0.302083333333333</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1129,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1173,31 +1805,34 @@
       <c r="Y5" s="1">
         <v>26</v>
       </c>
+      <c r="Z5" s="2">
+        <v>1373</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
+    <row r="6" spans="1:26">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
         <v>270</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2">
         <v>122</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <v>0.452</v>
+      </c>
+      <c r="G6" s="2">
         <v>130</v>
       </c>
-      <c r="H6" s="4">
-        <v>0.30208333333333298</v>
+      <c r="H6" s="3">
+        <v>0.302083333333333</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1250,30 +1885,33 @@
       <c r="Y6" s="1">
         <v>26</v>
       </c>
+      <c r="Z6" s="2">
+        <v>7353</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3">
+    <row r="7" spans="1:26">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
         <v>525</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2">
         <v>245</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <v>0.467</v>
+      </c>
+      <c r="G7" s="2">
         <v>89</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.28125</v>
       </c>
       <c r="I7" s="1">
@@ -1327,31 +1965,34 @@
       <c r="Y7" s="1">
         <v>26</v>
       </c>
+      <c r="Z7" s="2">
+        <v>501</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="8" spans="1:26">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
         <v>317</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2">
         <v>226</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <v>0.713</v>
+      </c>
+      <c r="G8" s="2">
         <v>110</v>
       </c>
-      <c r="H8" s="4">
-        <v>0.24861111111111101</v>
+      <c r="H8" s="3">
+        <v>0.248611111111111</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1404,30 +2045,33 @@
       <c r="Y8" s="1">
         <v>26</v>
       </c>
+      <c r="Z8" s="2">
+        <v>3723</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3">
+    <row r="9" spans="1:26">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
         <v>400</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2">
         <v>197</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
+        <v>0.493</v>
+      </c>
+      <c r="G9" s="2">
         <v>158</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.297916666666667</v>
       </c>
       <c r="I9" s="1">
@@ -1481,31 +2125,34 @@
       <c r="Y9" s="1">
         <v>26</v>
       </c>
+      <c r="Z9" s="2">
+        <v>1482</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="10" spans="1:26">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2">
         <v>388</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2">
         <v>208</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <v>0.536</v>
+      </c>
+      <c r="G10" s="2">
         <v>99</v>
       </c>
-      <c r="H10" s="4">
-        <v>0.29166666666666702</v>
+      <c r="H10" s="3">
+        <v>0.291666666666667</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1558,31 +2205,34 @@
       <c r="Y10" s="1">
         <v>26</v>
       </c>
+      <c r="Z10" s="2">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="11" spans="1:26">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2">
         <v>422</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2">
         <v>274</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <v>0.649</v>
+      </c>
+      <c r="G11" s="2">
         <v>86</v>
       </c>
-      <c r="H11" s="4">
-        <v>0.29097222222222202</v>
+      <c r="H11" s="3">
+        <v>0.290972222222222</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1635,31 +2285,34 @@
       <c r="Y11" s="1">
         <v>26</v>
       </c>
+      <c r="Z11" s="2">
+        <v>1399</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="12" spans="1:26">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2">
         <v>384</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2">
         <v>205</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <v>0.534</v>
+      </c>
+      <c r="G12" s="2">
         <v>75</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.26041666666666702</v>
+      <c r="H12" s="3">
+        <v>0.260416666666667</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1712,30 +2365,33 @@
       <c r="Y12" s="1">
         <v>26</v>
       </c>
+      <c r="Z12" s="2">
+        <v>6558</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="13" spans="1:26">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2">
         <v>447</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2">
         <v>249</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <v>0.557</v>
+      </c>
+      <c r="G13" s="2">
         <v>123</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.28125</v>
       </c>
       <c r="I13" s="1">
@@ -1789,31 +2445,34 @@
       <c r="Y13" s="1">
         <v>26</v>
       </c>
+      <c r="Z13" s="2">
+        <v>5150</v>
+      </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="14" spans="1:26">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2">
         <v>405</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2">
         <v>179</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.442</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>191</v>
       </c>
-      <c r="H14" s="4">
-        <v>0.29166666666666702</v>
+      <c r="H14" s="3">
+        <v>0.291666666666667</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1866,31 +2525,34 @@
       <c r="Y14" s="1">
         <v>26</v>
       </c>
+      <c r="Z14" s="2">
+        <v>3342</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3">
+    <row r="15" spans="1:26">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2">
         <v>376</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2">
         <v>246</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <v>0.654</v>
+      </c>
+      <c r="G15" s="2">
         <v>61</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.30208333333333298</v>
+      <c r="H15" s="3">
+        <v>0.302083333333333</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1943,31 +2605,34 @@
       <c r="Y15" s="1">
         <v>26</v>
       </c>
+      <c r="Z15" s="2">
+        <v>2420</v>
+      </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3">
+    <row r="16" spans="1:26">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2">
         <v>454</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
         <v>302</v>
       </c>
-      <c r="F16" s="3">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <v>0.665</v>
+      </c>
+      <c r="G16" s="2">
         <v>118</v>
       </c>
-      <c r="H16" s="4">
-        <v>0.30208333333333298</v>
+      <c r="H16" s="3">
+        <v>0.302083333333333</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -2020,30 +2685,33 @@
       <c r="Y16" s="1">
         <v>26</v>
       </c>
+      <c r="Z16" s="2">
+        <v>1855</v>
+      </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="17" spans="1:26">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2">
         <v>510</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2">
         <v>245</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0.48</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>73</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.28125</v>
       </c>
       <c r="I17" s="1">
@@ -2097,31 +2765,34 @@
       <c r="Y17" s="1">
         <v>26</v>
       </c>
+      <c r="Z17" s="2">
+        <v>647</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="18" spans="1:26">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2">
         <v>377</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2">
         <v>226</v>
       </c>
-      <c r="F18" s="3">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="2">
+        <v>0.599</v>
+      </c>
+      <c r="G18" s="2">
         <v>81</v>
       </c>
-      <c r="H18" s="4">
-        <v>0.24861111111111101</v>
+      <c r="H18" s="3">
+        <v>0.248611111111111</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -2174,30 +2845,33 @@
       <c r="Y18" s="1">
         <v>26</v>
       </c>
+      <c r="Z18" s="2">
+        <v>2457</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3">
+    <row r="19" spans="1:26">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2">
         <v>280</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2">
         <v>197</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="2">
+        <v>0.704</v>
+      </c>
+      <c r="G19" s="2">
         <v>166</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.297916666666667</v>
       </c>
       <c r="I19" s="1">
@@ -2251,31 +2925,34 @@
       <c r="Y19" s="1">
         <v>26</v>
       </c>
+      <c r="Z19" s="2">
+        <v>4868</v>
+      </c>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="3">
+    <row r="20" spans="1:26">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2">
         <v>448</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2">
         <v>328</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <v>0.732</v>
+      </c>
+      <c r="G20" s="2">
         <v>160</v>
       </c>
-      <c r="H20" s="4">
-        <v>0.29166666666666702</v>
+      <c r="H20" s="3">
+        <v>0.291666666666667</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -2284,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -2328,31 +3005,34 @@
       <c r="Y20" s="1">
         <v>26</v>
       </c>
+      <c r="Z20" s="2">
+        <v>1702</v>
+      </c>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3">
+    <row r="21" spans="1:26">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2">
         <v>182</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2">
         <v>154</v>
       </c>
-      <c r="F21" s="3">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
+        <v>0.846</v>
+      </c>
+      <c r="G21" s="2">
         <v>158</v>
       </c>
-      <c r="H21" s="4">
-        <v>0.29097222222222202</v>
+      <c r="H21" s="3">
+        <v>0.290972222222222</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -2361,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -2405,31 +3085,34 @@
       <c r="Y21" s="1">
         <v>26</v>
       </c>
+      <c r="Z21" s="2">
+        <v>7407</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="3">
+    <row r="22" spans="1:26">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2">
         <v>503</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2">
         <v>390</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="2">
+        <v>0.775</v>
+      </c>
+      <c r="G22" s="2">
         <v>92</v>
       </c>
-      <c r="H22" s="4">
-        <v>0.28472222222222199</v>
+      <c r="H22" s="3">
+        <v>0.284722222222222</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -2438,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -2482,31 +3165,34 @@
       <c r="Y22" s="1">
         <v>26</v>
       </c>
+      <c r="Z22" s="2">
+        <v>455</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="3" t="s">
-        <v>65</v>
+    <row r="23" spans="1:26">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1">
         <v>444</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1">
         <v>172</v>
       </c>
       <c r="F23" s="1">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="G23" s="1">
         <v>75</v>
       </c>
-      <c r="H23" s="2">
-        <v>0.26041666666666702</v>
+      <c r="H23" s="4">
+        <v>0.260416666666667</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -2559,30 +3245,33 @@
       <c r="Y23" s="1">
         <v>26</v>
       </c>
+      <c r="Z23" s="1">
+        <v>1240</v>
+      </c>
     </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="3" t="s">
-        <v>68</v>
+    <row r="24" spans="1:26">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1">
         <v>444</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1">
         <v>249</v>
       </c>
       <c r="F24" s="1">
-        <v>0.56100000000000005</v>
+        <v>0.561</v>
       </c>
       <c r="G24" s="1">
         <v>123</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <v>0.28125</v>
       </c>
       <c r="I24" s="1">
@@ -2636,31 +3325,34 @@
       <c r="Y24" s="1">
         <v>26</v>
       </c>
+      <c r="Z24" s="1">
+        <v>1410</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="3" t="s">
-        <v>69</v>
+    <row r="25" spans="1:26">
+      <c r="A25" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1">
         <v>447</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1">
         <v>239</v>
       </c>
       <c r="F25" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.535</v>
       </c>
       <c r="G25" s="1">
         <v>88</v>
       </c>
-      <c r="H25" s="2">
-        <v>9.6527777777777796E-2</v>
+      <c r="H25" s="4">
+        <v>0.0965277777777778</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -2713,31 +3405,34 @@
       <c r="Y25" s="1">
         <v>26</v>
       </c>
+      <c r="Z25" s="1">
+        <v>2801</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="3" t="s">
-        <v>71</v>
+    <row r="26" spans="1:26">
+      <c r="A26" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1">
         <v>430</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1">
         <v>302</v>
       </c>
       <c r="F26" s="1">
-        <v>0.70199999999999996</v>
+        <v>0.702</v>
       </c>
       <c r="G26" s="1">
         <v>123</v>
       </c>
-      <c r="H26" s="2">
-        <v>0.29166666666666702</v>
+      <c r="H26" s="4">
+        <v>0.291666666666667</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -2790,31 +3485,34 @@
       <c r="Y26" s="1">
         <v>26</v>
       </c>
+      <c r="Z26" s="1">
+        <v>2295</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="3" t="s">
-        <v>73</v>
+    <row r="27" spans="1:26">
+      <c r="A27" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1">
         <v>505</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1">
         <v>200</v>
       </c>
       <c r="F27" s="1">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="G27" s="1">
         <v>138</v>
       </c>
-      <c r="H27" s="2">
-        <v>0.29166666666666702</v>
+      <c r="H27" s="4">
+        <v>0.291666666666667</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -2823,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
@@ -2867,31 +3565,34 @@
       <c r="Y27" s="1">
         <v>26</v>
       </c>
+      <c r="Z27" s="1">
+        <v>5068</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="3" t="s">
-        <v>76</v>
+    <row r="28" spans="1:26">
+      <c r="A28" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1">
         <v>337</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1">
         <v>187</v>
       </c>
       <c r="F28" s="1">
-        <v>0.55500000000000005</v>
+        <v>0.555</v>
       </c>
       <c r="G28" s="1">
         <v>219</v>
       </c>
-      <c r="H28" s="2">
-        <v>0.27291666666666697</v>
+      <c r="H28" s="4">
+        <v>0.272916666666667</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -2944,31 +3645,34 @@
       <c r="Y28" s="1">
         <v>26</v>
       </c>
+      <c r="Z28" s="1">
+        <v>4842</v>
+      </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1">
         <v>309</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1">
         <v>262</v>
       </c>
       <c r="F29" s="1">
-        <v>0.84799999999999998</v>
+        <v>0.848</v>
       </c>
       <c r="G29" s="1">
         <v>144</v>
       </c>
-      <c r="H29" s="2">
-        <v>0.30208333333333298</v>
+      <c r="H29" s="4">
+        <v>0.302083333333333</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -3021,30 +3725,33 @@
       <c r="Y29" s="1">
         <v>26</v>
       </c>
+      <c r="Z29" s="1">
+        <v>1522</v>
+      </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1">
         <v>399</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E30" s="1">
         <v>221</v>
       </c>
       <c r="F30" s="1">
-        <v>0.55400000000000005</v>
+        <v>0.554</v>
       </c>
       <c r="G30" s="1">
         <v>104</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="4">
         <v>0</v>
       </c>
       <c r="I30" s="1">
@@ -3098,31 +3805,34 @@
       <c r="Y30" s="1">
         <v>26</v>
       </c>
+      <c r="Z30" s="1">
+        <v>2308</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1">
         <v>442</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1">
         <v>253</v>
       </c>
       <c r="F31" s="1">
-        <v>0.57199999999999995</v>
+        <v>0.572</v>
       </c>
       <c r="G31" s="1">
         <v>80</v>
       </c>
-      <c r="H31" s="2">
-        <v>0.29166666666666702</v>
+      <c r="H31" s="4">
+        <v>0.291666666666667</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -3175,31 +3885,34 @@
       <c r="Y31" s="1">
         <v>26</v>
       </c>
+      <c r="Z31" s="1">
+        <v>250</v>
+      </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1">
         <v>351</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1">
         <v>198</v>
       </c>
       <c r="F32" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.564</v>
       </c>
       <c r="G32" s="1">
         <v>141</v>
       </c>
-      <c r="H32" s="2">
-        <v>0.29166666666666702</v>
+      <c r="H32" s="4">
+        <v>0.291666666666667</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -3252,19 +3965,22 @@
       <c r="Y32" s="1">
         <v>26</v>
       </c>
+      <c r="Z32" s="1">
+        <v>1412</v>
+      </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1">
         <v>309</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1">
         <v>192</v>
@@ -3275,7 +3991,7 @@
       <c r="G33" s="1">
         <v>113</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="4">
         <v>0.28125</v>
       </c>
       <c r="I33" s="1">
@@ -3329,31 +4045,34 @@
       <c r="Y33" s="1">
         <v>26</v>
       </c>
+      <c r="Z33" s="1">
+        <v>7106</v>
+      </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1">
         <v>412</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="1">
         <v>283</v>
       </c>
       <c r="F34" s="1">
-        <v>0.68700000000000006</v>
+        <v>0.687</v>
       </c>
       <c r="G34" s="1">
         <v>108</v>
       </c>
-      <c r="H34" s="2">
-        <v>0.27708333333333302</v>
+      <c r="H34" s="4">
+        <v>0.277083333333333</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -3406,30 +4125,33 @@
       <c r="Y34" s="1">
         <v>26</v>
       </c>
+      <c r="Z34" s="1">
+        <v>2460</v>
+      </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:26">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1">
         <v>409</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1">
         <v>291</v>
       </c>
       <c r="F35" s="1">
-        <v>0.71099999999999997</v>
+        <v>0.711</v>
       </c>
       <c r="G35" s="1">
         <v>179</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="4">
         <v>0.28125</v>
       </c>
       <c r="I35" s="1">
@@ -3483,31 +4205,34 @@
       <c r="Y35" s="1">
         <v>26</v>
       </c>
+      <c r="Z35" s="1">
+        <v>5405</v>
+      </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1">
         <v>475</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" s="1">
         <v>232</v>
       </c>
       <c r="F36" s="1">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="G36" s="1">
         <v>156</v>
       </c>
-      <c r="H36" s="2">
-        <v>0.29166666666666702</v>
+      <c r="H36" s="4">
+        <v>0.291666666666667</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -3516,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -3560,31 +4285,34 @@
       <c r="Y36" s="1">
         <v>26</v>
       </c>
+      <c r="Z36" s="1">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1">
         <v>661</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E37" s="1">
         <v>434</v>
       </c>
       <c r="F37" s="1">
-        <v>0.65700000000000003</v>
+        <v>0.657</v>
       </c>
       <c r="G37" s="1">
         <v>68</v>
       </c>
-      <c r="H37" s="2">
-        <v>0.31527777777777799</v>
+      <c r="H37" s="4">
+        <v>0.315277777777778</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3637,19 +4365,22 @@
       <c r="Y37" s="1">
         <v>26</v>
       </c>
+      <c r="Z37" s="1">
+        <v>194</v>
+      </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:26">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1">
         <v>499</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38" s="1">
         <v>216</v>
@@ -3660,8 +4391,8 @@
       <c r="G38" s="1">
         <v>84</v>
       </c>
-      <c r="H38" s="2">
-        <v>3.4027777777777803E-2</v>
+      <c r="H38" s="4">
+        <v>0.0340277777777778</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -3714,31 +4445,34 @@
       <c r="Y38" s="1">
         <v>26</v>
       </c>
+      <c r="Z38" s="1">
+        <v>1197</v>
+      </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1">
         <v>352</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E39" s="1">
         <v>227</v>
       </c>
       <c r="F39" s="1">
-        <v>0.64500000000000002</v>
+        <v>0.645</v>
       </c>
       <c r="G39" s="1">
         <v>101</v>
       </c>
-      <c r="H39" s="2">
-        <v>4.0277777777777801E-2</v>
+      <c r="H39" s="4">
+        <v>0.0402777777777778</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -3791,31 +4525,34 @@
       <c r="Y39" s="1">
         <v>26</v>
       </c>
+      <c r="Z39" s="1">
+        <v>2989</v>
+      </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:26">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1">
         <v>495</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" s="1">
         <v>243</v>
       </c>
       <c r="F40" s="1">
-        <v>0.49099999999999999</v>
+        <v>0.491</v>
       </c>
       <c r="G40" s="1">
         <v>144</v>
       </c>
-      <c r="H40" s="2">
-        <v>0.29166666666666702</v>
+      <c r="H40" s="4">
+        <v>0.291666666666667</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -3868,10 +4605,13 @@
       <c r="Y40" s="1">
         <v>26</v>
       </c>
+      <c r="Z40" s="1">
+        <v>650</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>